--- a/Output/Стиральные машины.xlsx
+++ b/Output/Стиральные машины.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Артикул</t>
   </si>
@@ -193,6 +193,12 @@
     <t>WDB020</t>
   </si>
   <si>
+    <t>фронтальные</t>
+  </si>
+  <si>
+    <t>стандартные (глубина 60 см)</t>
+  </si>
+  <si>
     <t>WDD030</t>
   </si>
   <si>
@@ -233,6 +239,9 @@
   </si>
   <si>
     <t>Стирально-сушильная машина</t>
+  </si>
+  <si>
+    <t>с сушкой</t>
   </si>
   <si>
     <t>WTH130WPM</t>
@@ -1247,8 +1256,12 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
@@ -1271,7 +1284,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -1280,16 +1293,20 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
       <c r="K10" t="s"/>
@@ -1312,7 +1329,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1321,7 +1338,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -1337,7 +1354,7 @@
       </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
         <v>32</v>
@@ -1382,7 +1399,7 @@
         <v>41</v>
       </c>
       <c r="Y11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z11" t="s">
         <v>41</v>
@@ -1393,7 +1410,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1402,7 +1419,7 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -1463,7 +1480,7 @@
         <v>41</v>
       </c>
       <c r="Y12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z12" t="s">
         <v>41</v>
@@ -1474,7 +1491,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1483,7 +1500,7 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -1544,7 +1561,7 @@
         <v>41</v>
       </c>
       <c r="Y13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z13" t="s">
         <v>41</v>
@@ -1555,16 +1572,16 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1572,8 +1589,12 @@
       <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
       <c r="K14" t="s"/>
@@ -1596,16 +1617,16 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -1642,7 +1663,7 @@
         <v>38</v>
       </c>
       <c r="Q15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R15" t="n">
         <v>7</v>
@@ -1651,7 +1672,7 @@
         <v>1200</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s">
         <v>50</v>
@@ -1677,16 +1698,16 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -1694,7 +1715,9 @@
       <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="G16" t="s"/>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
       <c r="H16" t="s"/>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
@@ -1718,16 +1741,16 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -1735,7 +1758,9 @@
       <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="G17" t="s"/>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
       <c r="H17" t="s"/>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
@@ -1759,16 +1784,16 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
         <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -1776,7 +1801,9 @@
       <c r="F18" t="s">
         <v>31</v>
       </c>
-      <c r="G18" t="s"/>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
       <c r="H18" t="s"/>
       <c r="I18" t="s"/>
       <c r="J18" t="s"/>
